--- a/results/main/ahirkapi.xlsx
+++ b/results/main/ahirkapi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\results\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E9A879-E920-4627-9978-8D34DE24A11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5881205F-3075-4665-8777-A4ED31AEE008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,20 @@
     <sheet name="0.40" sheetId="2" r:id="rId2"/>
     <sheet name="0.60" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -367,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,6 +473,108 @@
         <v>4.2146198807329942E-2</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>379.66670483086511</v>
+      </c>
+      <c r="B6">
+        <v>989.39720947740273</v>
+      </c>
+      <c r="C6">
+        <v>947.50952380952378</v>
+      </c>
+      <c r="D6">
+        <v>0.69612845889346275</v>
+      </c>
+      <c r="E6">
+        <v>2.800108214210913E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>444.86062599731139</v>
+      </c>
+      <c r="B7">
+        <v>981.33875299806482</v>
+      </c>
+      <c r="C7">
+        <v>978.71532846715331</v>
+      </c>
+      <c r="D7">
+        <v>0.66225835462341753</v>
+      </c>
+      <c r="E7">
+        <v>4.5471756056953513E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>281.23734881604179</v>
+      </c>
+      <c r="B8">
+        <v>778.02576823443928</v>
+      </c>
+      <c r="C8">
+        <v>844.28753180661579</v>
+      </c>
+      <c r="D8">
+        <v>0.68108918119546069</v>
+      </c>
+      <c r="E8">
+        <v>4.1126526573731871E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>358.52313799000791</v>
+      </c>
+      <c r="B9">
+        <v>960.58268652481422</v>
+      </c>
+      <c r="C9">
+        <v>868.33830845771149</v>
+      </c>
+      <c r="D9">
+        <v>0.63872050352679277</v>
+      </c>
+      <c r="E9">
+        <v>4.0862615553349878E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>402.44880345407728</v>
+      </c>
+      <c r="B10">
+        <v>887.05590178901991</v>
+      </c>
+      <c r="C10">
+        <v>948.24200913242009</v>
+      </c>
+      <c r="D10">
+        <v>0.66408131105174539</v>
+      </c>
+      <c r="E10">
+        <v>4.8814508730723627E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>417.27560325679048</v>
+      </c>
+      <c r="B11">
+        <v>938.66562860606223</v>
+      </c>
+      <c r="C11">
+        <v>735.00478468899519</v>
+      </c>
+      <c r="D11">
+        <v>0.65589963462889733</v>
+      </c>
+      <c r="E11">
+        <v>4.5132499526574187E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -467,10 +582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE7E4B7-2929-4735-BF27-4139AE31B4FA}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,6 +675,108 @@
         <v>4.2146198807329942E-2</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>184.2043068852993</v>
+      </c>
+      <c r="B6">
+        <v>673.11894372584288</v>
+      </c>
+      <c r="C6">
+        <v>945.61428571428576</v>
+      </c>
+      <c r="D6">
+        <v>0.69297371332831093</v>
+      </c>
+      <c r="E6">
+        <v>3.7561965410185312E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>393.69170969264383</v>
+      </c>
+      <c r="B7">
+        <v>927.05197682537687</v>
+      </c>
+      <c r="C7">
+        <v>989.504854368932</v>
+      </c>
+      <c r="D7">
+        <v>0.67338699217481224</v>
+      </c>
+      <c r="E7">
+        <v>3.9892189158876108E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>252.49431554261241</v>
+      </c>
+      <c r="B8">
+        <v>751.6617687717752</v>
+      </c>
+      <c r="C8">
+        <v>865.46310432569976</v>
+      </c>
+      <c r="D8">
+        <v>0.66207068580272543</v>
+      </c>
+      <c r="E8">
+        <v>3.8481644141600241E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>248.9571876210199</v>
+      </c>
+      <c r="B9">
+        <v>778.62822336543297</v>
+      </c>
+      <c r="C9">
+        <v>856.18952618453864</v>
+      </c>
+      <c r="D9">
+        <v>0.68382760956095745</v>
+      </c>
+      <c r="E9">
+        <v>4.452762712579026E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>402.44880345407728</v>
+      </c>
+      <c r="B10">
+        <v>887.05590178901991</v>
+      </c>
+      <c r="C10">
+        <v>948.24200913242009</v>
+      </c>
+      <c r="D10">
+        <v>0.66408131105174539</v>
+      </c>
+      <c r="E10">
+        <v>4.8814508730723627E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>446.57088310917419</v>
+      </c>
+      <c r="B11">
+        <v>945.3710723094955</v>
+      </c>
+      <c r="C11">
+        <v>755.26555023923447</v>
+      </c>
+      <c r="D11">
+        <v>0.66348213394775668</v>
+      </c>
+      <c r="E11">
+        <v>4.2501795491483689E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -567,10 +784,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6923DF-F932-46A1-B111-B102578010CD}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,6 +860,125 @@
         <v>3.6478263554037077E-2</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>235.20792140866109</v>
+      </c>
+      <c r="B5">
+        <v>753.54349862382355</v>
+      </c>
+      <c r="C5">
+        <v>726.32394366197184</v>
+      </c>
+      <c r="D5">
+        <v>0.66930914347614523</v>
+      </c>
+      <c r="E5">
+        <v>4.2146198807329942E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>379.66670483086511</v>
+      </c>
+      <c r="B6">
+        <v>989.39720947740273</v>
+      </c>
+      <c r="C6">
+        <v>947.50952380952378</v>
+      </c>
+      <c r="D6">
+        <v>0.69612845889346275</v>
+      </c>
+      <c r="E6">
+        <v>2.800108214210913E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>444.86062599731139</v>
+      </c>
+      <c r="B7">
+        <v>981.33875299806482</v>
+      </c>
+      <c r="C7">
+        <v>978.71532846715331</v>
+      </c>
+      <c r="D7">
+        <v>0.66225835462341753</v>
+      </c>
+      <c r="E7">
+        <v>4.5471756056953513E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>318.43486142799088</v>
+      </c>
+      <c r="B8">
+        <v>806.92327445575631</v>
+      </c>
+      <c r="C8">
+        <v>840.28571428571433</v>
+      </c>
+      <c r="D8">
+        <v>0.69299588462744677</v>
+      </c>
+      <c r="E8">
+        <v>2.924176472514969E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>358.52313799000791</v>
+      </c>
+      <c r="B9">
+        <v>960.58268652481422</v>
+      </c>
+      <c r="C9">
+        <v>868.33830845771149</v>
+      </c>
+      <c r="D9">
+        <v>0.63872050352679277</v>
+      </c>
+      <c r="E9">
+        <v>4.0862615553349878E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>402.44880345407728</v>
+      </c>
+      <c r="B10">
+        <v>887.05590178901991</v>
+      </c>
+      <c r="C10">
+        <v>948.24200913242009</v>
+      </c>
+      <c r="D10">
+        <v>0.66408131105174539</v>
+      </c>
+      <c r="E10">
+        <v>4.8814508730723627E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>417.27560325679048</v>
+      </c>
+      <c r="B11">
+        <v>938.66562860606223</v>
+      </c>
+      <c r="C11">
+        <v>735.00478468899519</v>
+      </c>
+      <c r="D11">
+        <v>0.65589963462889733</v>
+      </c>
+      <c r="E11">
+        <v>4.5132499526574187E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/main/ahirkapi.xlsx
+++ b/results/main/ahirkapi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\results\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5881205F-3075-4665-8777-A4ED31AEE008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B3BDE3-34D8-4C55-A25C-2F01EFD54DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.50" sheetId="1" r:id="rId1"/>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+      <selection activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,6 +575,74 @@
         <v>4.5132499526574187E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>335.55556083844101</v>
+      </c>
+      <c r="B12">
+        <v>930.20918823805835</v>
+      </c>
+      <c r="C12">
+        <v>754.39906103286387</v>
+      </c>
+      <c r="D12">
+        <v>0.66841560408409451</v>
+      </c>
+      <c r="E12">
+        <v>3.7219554073104573E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>300.87989231923939</v>
+      </c>
+      <c r="B13">
+        <v>807.54510189818018</v>
+      </c>
+      <c r="C13">
+        <v>929.17560975609751</v>
+      </c>
+      <c r="D13">
+        <v>0.66788045906015003</v>
+      </c>
+      <c r="E13">
+        <v>4.0283702600136133E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>225.90914698405709</v>
+      </c>
+      <c r="B14">
+        <v>790.89153099354223</v>
+      </c>
+      <c r="C14">
+        <v>999.70833333333337</v>
+      </c>
+      <c r="D14">
+        <v>0.65308298102338924</v>
+      </c>
+      <c r="E14">
+        <v>4.2918914096113647E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>296.61659498355851</v>
+      </c>
+      <c r="B15">
+        <v>787.36363049521026</v>
+      </c>
+      <c r="C15">
+        <v>991.1069651741293</v>
+      </c>
+      <c r="D15">
+        <v>0.67466647740069308</v>
+      </c>
+      <c r="E15">
+        <v>4.0942379199994293E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -582,10 +650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE7E4B7-2929-4735-BF27-4139AE31B4FA}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,6 +845,74 @@
         <v>4.2501795491483689E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>347.57427956128419</v>
+      </c>
+      <c r="B12">
+        <v>932.89832322827806</v>
+      </c>
+      <c r="C12">
+        <v>755.35446009389671</v>
+      </c>
+      <c r="D12">
+        <v>0.65518193572896688</v>
+      </c>
+      <c r="E12">
+        <v>3.9853993176771872E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>248.22383993061391</v>
+      </c>
+      <c r="B13">
+        <v>790.47661094710327</v>
+      </c>
+      <c r="C13">
+        <v>924.43170731707312</v>
+      </c>
+      <c r="D13">
+        <v>0.65860234320396294</v>
+      </c>
+      <c r="E13">
+        <v>3.6766912956251813E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>225.90914698405709</v>
+      </c>
+      <c r="B14">
+        <v>790.89153099354223</v>
+      </c>
+      <c r="C14">
+        <v>999.70833333333337</v>
+      </c>
+      <c r="D14">
+        <v>0.65308298102338924</v>
+      </c>
+      <c r="E14">
+        <v>4.2918914096113647E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>296.61659498355851</v>
+      </c>
+      <c r="B15">
+        <v>787.36363049521026</v>
+      </c>
+      <c r="C15">
+        <v>991.1069651741293</v>
+      </c>
+      <c r="D15">
+        <v>0.67466647740069308</v>
+      </c>
+      <c r="E15">
+        <v>4.0942379199994293E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -784,10 +920,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6923DF-F932-46A1-B111-B102578010CD}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,6 +1115,74 @@
         <v>4.5132499526574187E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>335.55556083844101</v>
+      </c>
+      <c r="B12">
+        <v>930.20918823805835</v>
+      </c>
+      <c r="C12">
+        <v>754.39906103286387</v>
+      </c>
+      <c r="D12">
+        <v>0.66841560408409451</v>
+      </c>
+      <c r="E12">
+        <v>3.7219554073104573E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>295.83203254696849</v>
+      </c>
+      <c r="B13">
+        <v>715.75217535229149</v>
+      </c>
+      <c r="C13">
+        <v>909.05609756097556</v>
+      </c>
+      <c r="D13">
+        <v>0.68121022842742751</v>
+      </c>
+      <c r="E13">
+        <v>3.7294772860895477E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>222.29330063549901</v>
+      </c>
+      <c r="B14">
+        <v>783.20199403606375</v>
+      </c>
+      <c r="C14">
+        <v>999.67647058823525</v>
+      </c>
+      <c r="D14">
+        <v>0.6531055530915264</v>
+      </c>
+      <c r="E14">
+        <v>4.3073019053644593E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>296.61659498355851</v>
+      </c>
+      <c r="B15">
+        <v>787.36363049521026</v>
+      </c>
+      <c r="C15">
+        <v>991.1069651741293</v>
+      </c>
+      <c r="D15">
+        <v>0.67466647740069308</v>
+      </c>
+      <c r="E15">
+        <v>4.0942379199994293E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/main/ahirkapi.xlsx
+++ b/results/main/ahirkapi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\results\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B3BDE3-34D8-4C55-A25C-2F01EFD54DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F8310D-DDC5-4F49-981C-4FE9A229F6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,15 +380,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E15"/>
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>236.27217036414541</v>
       </c>
@@ -404,8 +404,28 @@
       <c r="E1">
         <v>3.6918591874402357E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A17)</f>
+        <v>340.14783141474692</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>870.9911241670768</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>880.278556218365</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.66745940459992104</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>4.187962862313202E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>423.23160440864768</v>
       </c>
@@ -422,7 +442,7 @@
         <v>5.287284454230684E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>370.28088137301421</v>
       </c>
@@ -439,7 +459,7 @@
         <v>4.7245080699728929E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>420.75731501035477</v>
       </c>
@@ -456,7 +476,7 @@
         <v>3.8238174870421443E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>235.20792140866109</v>
       </c>
@@ -473,7 +493,7 @@
         <v>4.2146198807329942E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>379.66670483086511</v>
       </c>
@@ -490,7 +510,7 @@
         <v>2.800108214210913E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>444.86062599731139</v>
       </c>
@@ -507,7 +527,7 @@
         <v>4.5471756056953513E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>281.23734881604179</v>
       </c>
@@ -524,7 +544,7 @@
         <v>4.1126526573731871E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>358.52313799000791</v>
       </c>
@@ -541,7 +561,7 @@
         <v>4.0862615553349878E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>402.44880345407728</v>
       </c>
@@ -558,7 +578,7 @@
         <v>4.8814508730723627E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>417.27560325679048</v>
       </c>
@@ -575,7 +595,7 @@
         <v>4.5132499526574187E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>335.55556083844101</v>
       </c>
@@ -592,7 +612,7 @@
         <v>3.7219554073104573E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>300.87989231923939</v>
       </c>
@@ -609,7 +629,7 @@
         <v>4.0283702600136133E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>225.90914698405709</v>
       </c>
@@ -626,7 +646,7 @@
         <v>4.2918914096113647E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>296.61659498355851</v>
       </c>
@@ -643,22 +663,108 @@
         <v>4.0942379199994293E-2</v>
       </c>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>394.55899782051011</v>
+      </c>
+      <c r="B16">
+        <v>925.34012156067286</v>
+      </c>
+      <c r="C16">
+        <v>1011.848410757946</v>
+      </c>
+      <c r="D16">
+        <v>0.63677757415944802</v>
+      </c>
+      <c r="E16">
+        <v>4.0978970361053142E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>259.23082419497462</v>
+      </c>
+      <c r="B17">
+        <v>833.39891599724785</v>
+      </c>
+      <c r="C17">
+        <v>928.80510440835269</v>
+      </c>
+      <c r="D17">
+        <v>0.60352537186259669</v>
+      </c>
+      <c r="E17">
+        <v>4.9813585820552238E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>312.17038436374088</v>
+      </c>
+      <c r="B18">
+        <v>817.92256395491245</v>
+      </c>
+      <c r="C18">
+        <v>781.85579196217498</v>
+      </c>
+      <c r="D18">
+        <v>0.69354907611870231</v>
+      </c>
+      <c r="E18">
+        <v>3.9499153292536483E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>413.90656471960813</v>
+      </c>
+      <c r="B19">
+        <v>943.50438986808024</v>
+      </c>
+      <c r="C19">
+        <v>879.95377128953771</v>
+      </c>
+      <c r="D19">
+        <v>0.66701508412425614</v>
+      </c>
+      <c r="E19">
+        <v>4.0462118633572297E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>251.17485036005641</v>
+      </c>
+      <c r="B20">
+        <v>879.7089538259545</v>
+      </c>
+      <c r="C20">
+        <v>898.30023640661943</v>
+      </c>
+      <c r="D20">
+        <v>0.63952992660218233</v>
+      </c>
+      <c r="E20">
+        <v>3.6465790063952147E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE7E4B7-2929-4735-BF27-4139AE31B4FA}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E15"/>
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>219.05314707311291</v>
       </c>
@@ -674,8 +780,28 @@
       <c r="E1">
         <v>3.8127038001022677E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A15)</f>
+        <v>297.96554501121216</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>817.38748517461875</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>887.3192896409023</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.66460918674263625</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>4.2053600901799208E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>278.58437393854399</v>
       </c>
@@ -692,7 +818,7 @@
         <v>5.2426912892508927E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>333.62498606571847</v>
       </c>
@@ -709,7 +835,7 @@
         <v>4.7869044796720099E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>356.32167891780563</v>
       </c>
@@ -726,7 +852,7 @@
         <v>3.7972889541615568E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>235.20792140866109</v>
       </c>
@@ -743,7 +869,7 @@
         <v>4.2146198807329942E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>184.2043068852993</v>
       </c>
@@ -760,7 +886,7 @@
         <v>3.7561965410185312E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>393.69170969264383</v>
       </c>
@@ -777,7 +903,7 @@
         <v>3.9892189158876108E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>252.49431554261241</v>
       </c>
@@ -794,7 +920,7 @@
         <v>3.8481644141600241E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>248.9571876210199</v>
       </c>
@@ -811,7 +937,7 @@
         <v>4.452762712579026E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>402.44880345407728</v>
       </c>
@@ -828,7 +954,7 @@
         <v>4.8814508730723627E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>446.57088310917419</v>
       </c>
@@ -845,7 +971,7 @@
         <v>4.2501795491483689E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>347.57427956128419</v>
       </c>
@@ -862,7 +988,7 @@
         <v>3.9853993176771872E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>248.22383993061391</v>
       </c>
@@ -879,7 +1005,7 @@
         <v>3.6766912956251813E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>225.90914698405709</v>
       </c>
@@ -896,7 +1022,7 @@
         <v>4.2918914096113647E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>296.61659498355851</v>
       </c>
@@ -911,6 +1037,91 @@
       </c>
       <c r="E15">
         <v>4.0942379199994293E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>394.55899782051011</v>
+      </c>
+      <c r="B16">
+        <v>925.34012156067286</v>
+      </c>
+      <c r="C16">
+        <v>1011.848410757946</v>
+      </c>
+      <c r="D16">
+        <v>0.63677757415944802</v>
+      </c>
+      <c r="E16">
+        <v>4.0978970361053142E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>257.62237541454709</v>
+      </c>
+      <c r="B17">
+        <v>832.10648494176667</v>
+      </c>
+      <c r="C17">
+        <v>929.31090487238976</v>
+      </c>
+      <c r="D17">
+        <v>0.60303169134696144</v>
+      </c>
+      <c r="E17">
+        <v>4.9869062789098362E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>312.17038436374088</v>
+      </c>
+      <c r="B18">
+        <v>817.92256395491245</v>
+      </c>
+      <c r="C18">
+        <v>781.85579196217498</v>
+      </c>
+      <c r="D18">
+        <v>0.69354907611870231</v>
+      </c>
+      <c r="E18">
+        <v>3.9499153292536483E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>341.31462312905751</v>
+      </c>
+      <c r="B19">
+        <v>930.37197055263675</v>
+      </c>
+      <c r="C19">
+        <v>896.6650485436893</v>
+      </c>
+      <c r="D19">
+        <v>0.63780884875691046</v>
+      </c>
+      <c r="E19">
+        <v>4.3166871870464182E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>251.17485036005641</v>
+      </c>
+      <c r="B20">
+        <v>879.7089538259545</v>
+      </c>
+      <c r="C20">
+        <v>898.30023640661943</v>
+      </c>
+      <c r="D20">
+        <v>0.63952992660218233</v>
+      </c>
+      <c r="E20">
+        <v>3.6465790063952147E-2</v>
       </c>
     </row>
   </sheetData>
@@ -920,15 +1131,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6923DF-F932-46A1-B111-B102578010CD}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E15"/>
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>236.27217036414541</v>
       </c>
@@ -944,8 +1155,28 @@
       <c r="E1">
         <v>3.6918591874402357E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A15)</f>
+        <v>336.78899186088222</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>854.40453520678591</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>879.46658551451833</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.66959551618200697</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>4.056511934929128E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>380.00047689056379</v>
       </c>
@@ -962,7 +1193,7 @@
         <v>5.1143239695022338E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>291.60963429102708</v>
       </c>
@@ -979,7 +1210,7 @@
         <v>4.57365443860785E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>437.23744899732588</v>
       </c>
@@ -996,7 +1227,7 @@
         <v>3.6478263554037077E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>235.20792140866109</v>
       </c>
@@ -1013,7 +1244,7 @@
         <v>4.2146198807329942E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>379.66670483086511</v>
       </c>
@@ -1030,7 +1261,7 @@
         <v>2.800108214210913E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>444.86062599731139</v>
       </c>
@@ -1047,7 +1278,7 @@
         <v>4.5471756056953513E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>318.43486142799088</v>
       </c>
@@ -1064,7 +1295,7 @@
         <v>2.924176472514969E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>358.52313799000791</v>
       </c>
@@ -1081,7 +1312,7 @@
         <v>4.0862615553349878E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>402.44880345407728</v>
       </c>
@@ -1098,7 +1329,7 @@
         <v>4.8814508730723627E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>417.27560325679048</v>
       </c>
@@ -1115,7 +1346,7 @@
         <v>4.5132499526574187E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>335.55556083844101</v>
       </c>
@@ -1132,7 +1363,7 @@
         <v>3.7219554073104573E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>295.83203254696849</v>
       </c>
@@ -1149,7 +1380,7 @@
         <v>3.7294772860895477E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>222.29330063549901</v>
       </c>
@@ -1166,7 +1397,7 @@
         <v>4.3073019053644593E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>296.61659498355851</v>
       </c>
@@ -1181,6 +1412,91 @@
       </c>
       <c r="E15">
         <v>4.0942379199994293E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>394.55899782051011</v>
+      </c>
+      <c r="B16">
+        <v>925.34012156067286</v>
+      </c>
+      <c r="C16">
+        <v>1011.848410757946</v>
+      </c>
+      <c r="D16">
+        <v>0.63677757415944802</v>
+      </c>
+      <c r="E16">
+        <v>4.0978970361053142E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>303.44620556686829</v>
+      </c>
+      <c r="B17">
+        <v>844.20531994784517</v>
+      </c>
+      <c r="C17">
+        <v>884.21212121212125</v>
+      </c>
+      <c r="D17">
+        <v>0.66067566418725809</v>
+      </c>
+      <c r="E17">
+        <v>3.9008013836715649E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>239.6862734178282</v>
+      </c>
+      <c r="B18">
+        <v>754.888004404821</v>
+      </c>
+      <c r="C18">
+        <v>811.97635933806146</v>
+      </c>
+      <c r="D18">
+        <v>0.64355853215719827</v>
+      </c>
+      <c r="E18">
+        <v>4.8139393753443019E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>396.32658514004117</v>
+      </c>
+      <c r="B19">
+        <v>954.93792723776596</v>
+      </c>
+      <c r="C19">
+        <v>881.47560975609758</v>
+      </c>
+      <c r="D19">
+        <v>0.65589247113203031</v>
+      </c>
+      <c r="E19">
+        <v>4.0526772968377693E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>293.05969984252022</v>
+      </c>
+      <c r="B20">
+        <v>718.30536056160531</v>
+      </c>
+      <c r="C20">
+        <v>923.86823529411765</v>
+      </c>
+      <c r="D20">
+        <v>0.64617963002432466</v>
+      </c>
+      <c r="E20">
+        <v>4.1254467637591843E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results/main/ahirkapi.xlsx
+++ b/results/main/ahirkapi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\results\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F8310D-DDC5-4F49-981C-4FE9A229F6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E63AA1-2286-4DA5-ABE7-3F7879B57803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,19 +36,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,11 +65,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,372 +371,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="33" customWidth="1"/>
+    <col min="12" max="12" width="32.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>236.27217036414541</v>
+        <v>258.18890160331551</v>
       </c>
       <c r="B1">
-        <v>712.1862196912258</v>
+        <v>4.1084484963543083E-2</v>
       </c>
       <c r="C1">
-        <v>877.12561576354676</v>
+        <v>0.66617342510775135</v>
       </c>
       <c r="D1">
-        <v>0.6677161071502058</v>
+        <v>806.1750636457291</v>
       </c>
       <c r="E1">
-        <v>3.6918591874402357E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A17)</f>
-        <v>340.14783141474692</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>870.9911241670768</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>880.278556218365</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.66745940459992104</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>4.187962862313202E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>860.92098765432104</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>308.009552790041 ± 20.0471914619434</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" ref="L1:O1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.0433496016656037 ± 0.00184590248566859</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.660714525751219 ± 0.00634773389309155</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" si="0"/>
+        <v>831.002666311828 ± 29.8772077250559</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="0"/>
+        <v>882.314569487787 ± 30.2178718941384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>423.23160440864768</v>
+        <v>186.68482945666679</v>
       </c>
       <c r="B2">
-        <v>915.64815754413621</v>
+        <v>4.9093253587018673E-2</v>
       </c>
       <c r="C2">
-        <v>866.17974683544298</v>
+        <v>0.65505257350691848</v>
       </c>
       <c r="D2">
-        <v>0.67491205442705138</v>
+        <v>675.09254373323461</v>
       </c>
       <c r="E2">
-        <v>5.287284454230684E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>899.48737373737379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>370.28088137301421</v>
+        <v>313.88383294349461</v>
       </c>
       <c r="B3">
-        <v>885.69918724761317</v>
+        <v>4.79703911596173E-2</v>
       </c>
       <c r="C3">
-        <v>787.45537757437069</v>
+        <v>0.65760015195715049</v>
       </c>
       <c r="D3">
-        <v>0.6570466037221766</v>
+        <v>859.99100866935385</v>
       </c>
       <c r="E3">
-        <v>4.7245080699728929E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>773.33409610983983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>420.75731501035477</v>
+        <v>305.02946931077821</v>
       </c>
       <c r="B4">
-        <v>946.7144001445597</v>
+        <v>3.9685432916817698E-2</v>
       </c>
       <c r="C4">
-        <v>960.05343511450383</v>
+        <v>0.66641935899227978</v>
       </c>
       <c r="D4">
-        <v>0.68068419473513153</v>
+        <v>806.1290019189604</v>
       </c>
       <c r="E4">
-        <v>3.8238174870421443E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>968.87563451776646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>235.20792140866109</v>
+        <v>356.41914954225052</v>
       </c>
       <c r="B5">
-        <v>753.54349862382355</v>
+        <v>3.5110124517180888E-2</v>
       </c>
       <c r="C5">
-        <v>716.8767123287671</v>
+        <v>0.67441717242021371</v>
       </c>
       <c r="D5">
-        <v>0.66930914347614523</v>
+        <v>913.77926487463594</v>
       </c>
       <c r="E5">
-        <v>4.2146198807329942E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>732.90375586854464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>379.66670483086511</v>
+        <v>321.3306279722803</v>
       </c>
       <c r="B6">
-        <v>989.39720947740273</v>
+        <v>4.532367177306542E-2</v>
       </c>
       <c r="C6">
-        <v>947.50952380952378</v>
+        <v>0.66111155949975231</v>
       </c>
       <c r="D6">
-        <v>0.69612845889346275</v>
+        <v>797.69277843705811</v>
       </c>
       <c r="E6">
-        <v>2.800108214210913E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>948.42755344418049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>444.86062599731139</v>
+        <v>208.13640642001539</v>
       </c>
       <c r="B7">
-        <v>981.33875299806482</v>
+        <v>5.0072907128544182E-2</v>
       </c>
       <c r="C7">
-        <v>978.71532846715331</v>
+        <v>0.63247082811218003</v>
       </c>
       <c r="D7">
-        <v>0.66225835462341753</v>
+        <v>697.72395226156766</v>
       </c>
       <c r="E7">
-        <v>4.5471756056953513E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1007.285714285714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>281.23734881604179</v>
+        <v>399.34275722449388</v>
       </c>
       <c r="B8">
-        <v>778.02576823443928</v>
+        <v>3.1627474378504702E-2</v>
       </c>
       <c r="C8">
-        <v>844.28753180661579</v>
+        <v>0.68631185665447136</v>
       </c>
       <c r="D8">
-        <v>0.68108918119546069</v>
+        <v>1002.457070863021</v>
       </c>
       <c r="E8">
-        <v>4.1126526573731871E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>844.36386768447835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>358.52313799000791</v>
+        <v>218.40158693325819</v>
       </c>
       <c r="B9">
-        <v>960.58268652481422</v>
+        <v>4.2948993081423283E-2</v>
       </c>
       <c r="C9">
-        <v>868.33830845771149</v>
+        <v>0.64654101766445649</v>
       </c>
       <c r="D9">
-        <v>0.63872050352679277</v>
+        <v>700.88537624265189</v>
       </c>
       <c r="E9">
-        <v>4.0862615553349878E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>865.81840796019901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>402.44880345407728</v>
+        <v>312.89005310292458</v>
       </c>
       <c r="B10">
-        <v>887.05590178901991</v>
+        <v>4.4977749083687429E-2</v>
       </c>
       <c r="C10">
-        <v>948.24200913242009</v>
+        <v>0.66515747897325539</v>
       </c>
       <c r="D10">
-        <v>0.66408131105174539</v>
+        <v>832.12788538419943</v>
       </c>
       <c r="E10">
-        <v>4.8814508730723627E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>954.63325740318908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>417.27560325679048</v>
+        <v>341.77335518344933</v>
       </c>
       <c r="B11">
-        <v>938.66562860606223</v>
+        <v>4.7952418941777451E-2</v>
       </c>
       <c r="C11">
-        <v>735.00478468899519</v>
+        <v>0.63422683233980648</v>
       </c>
       <c r="D11">
-        <v>0.65589963462889733</v>
+        <v>850.64166483475299</v>
       </c>
       <c r="E11">
-        <v>4.5132499526574187E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>765.98564593301433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>335.55556083844101</v>
+        <v>394.40762538512593</v>
       </c>
       <c r="B12">
-        <v>930.20918823805835</v>
+        <v>4.8210861747804569E-2</v>
       </c>
       <c r="C12">
-        <v>754.39906103286387</v>
+        <v>0.66398612419857228</v>
       </c>
       <c r="D12">
-        <v>0.66841560408409451</v>
+        <v>912.76182031637995</v>
       </c>
       <c r="E12">
-        <v>3.7219554073104573E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>750.83840749414514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>300.87989231923939</v>
+        <v>333.29055057254612</v>
       </c>
       <c r="B13">
-        <v>807.54510189818018</v>
+        <v>4.6497110866443078E-2</v>
       </c>
       <c r="C13">
-        <v>929.17560975609751</v>
+        <v>0.64904016259280572</v>
       </c>
       <c r="D13">
-        <v>0.66788045906015003</v>
+        <v>827.50779568248834</v>
       </c>
       <c r="E13">
-        <v>4.0283702600136133E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>913.79024390243899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>225.90914698405709</v>
+        <v>256.33117014381241</v>
       </c>
       <c r="B14">
-        <v>790.89153099354223</v>
+        <v>4.5227905738146543E-2</v>
       </c>
       <c r="C14">
-        <v>999.70833333333337</v>
+        <v>0.65171681141792481</v>
       </c>
       <c r="D14">
-        <v>0.65308298102338924</v>
+        <v>744.2487802575223</v>
       </c>
       <c r="E14">
-        <v>4.2918914096113647E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1009.7726161369191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>296.61659498355851</v>
+        <v>361.31426384066413</v>
       </c>
       <c r="B15">
-        <v>787.36363049521026</v>
+        <v>3.5533598506166011E-2</v>
       </c>
       <c r="C15">
-        <v>991.1069651741293</v>
+        <v>0.67732796427056274</v>
       </c>
       <c r="D15">
-        <v>0.67466647740069308</v>
+        <v>906.45059017754318</v>
       </c>
       <c r="E15">
-        <v>4.0942379199994293E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>949.95760598503739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>394.55899782051011</v>
+        <v>295.49904418283148</v>
       </c>
       <c r="B16">
-        <v>925.34012156067286</v>
+        <v>4.3559528774189428E-2</v>
       </c>
       <c r="C16">
-        <v>1011.848410757946</v>
+        <v>0.64304943905151135</v>
       </c>
       <c r="D16">
-        <v>0.63677757415944802</v>
+        <v>939.74787465148484</v>
       </c>
       <c r="E16">
-        <v>4.0978970361053142E-2</v>
+        <v>1007.963503649635</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>259.23082419497462</v>
+        <v>380.85970168720542</v>
       </c>
       <c r="B17">
-        <v>833.39891599724785</v>
+        <v>4.1937273476098047E-2</v>
       </c>
       <c r="C17">
-        <v>928.80510440835269</v>
+        <v>0.66630523960201471</v>
       </c>
       <c r="D17">
-        <v>0.60352537186259669</v>
+        <v>886.20239195477723</v>
       </c>
       <c r="E17">
-        <v>4.9813585820552238E-2</v>
+        <v>887.5967365967366</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>312.17038436374088</v>
+        <v>249.47175189389279</v>
       </c>
       <c r="B18">
-        <v>817.92256395491245</v>
+        <v>4.4289717005626873E-2</v>
       </c>
       <c r="C18">
-        <v>781.85579196217498</v>
+        <v>0.68883191976783253</v>
       </c>
       <c r="D18">
-        <v>0.69354907611870231</v>
+        <v>787.49027622233859</v>
       </c>
       <c r="E18">
-        <v>3.9499153292536483E-2</v>
+        <v>758.48104265402844</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>413.90656471960813</v>
+        <v>321.87353268779202</v>
       </c>
       <c r="B19">
-        <v>943.50438986808024</v>
+        <v>3.7197101159276519E-2</v>
       </c>
       <c r="C19">
-        <v>879.95377128953771</v>
+        <v>0.65480379324333993</v>
       </c>
       <c r="D19">
-        <v>0.66701508412425614</v>
+        <v>879.24784373852037</v>
       </c>
       <c r="E19">
-        <v>4.0462118633572297E-2</v>
+        <v>890.96097560975613</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>251.17485036005641</v>
+        <v>365.75407259463441</v>
       </c>
       <c r="B20">
-        <v>879.7089538259545</v>
+        <v>4.3710423459425232E-2</v>
       </c>
       <c r="C20">
-        <v>898.30023640661943</v>
+        <v>0.63707528046840456</v>
       </c>
       <c r="D20">
-        <v>0.63952992660218233</v>
+        <v>947.84008114481605</v>
       </c>
       <c r="E20">
-        <v>3.6465790063952147E-2</v>
+        <v>900.05910165484636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>285.97197826498689</v>
+      </c>
+      <c r="B21">
+        <v>4.1895902663892599E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.69366412838629476</v>
+      </c>
+      <c r="D21">
+        <v>733.47532380449377</v>
+      </c>
+      <c r="E21">
+        <v>932.99524940617573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>347.15141944433111</v>
+      </c>
+      <c r="B22">
+        <v>4.7438985484897389E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.69172427190895469</v>
+      </c>
+      <c r="D22">
+        <v>815.47637336879313</v>
+      </c>
+      <c r="E22">
+        <v>901.82110091743118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>357.40409887442672</v>
+      </c>
+      <c r="B23">
+        <v>3.3319874384055037E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.67484753569891809</v>
+      </c>
+      <c r="D23">
+        <v>918.03100496446064</v>
+      </c>
+      <c r="E23">
+        <v>893.35421686746986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>220.2378532869252</v>
+      </c>
+      <c r="B24">
+        <v>4.4312302333630198E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.63541642208642191</v>
+      </c>
+      <c r="D24">
+        <v>695.54024243995855</v>
+      </c>
+      <c r="E24">
+        <v>803.6567164179105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>269.83031279115022</v>
+      </c>
+      <c r="B25">
+        <v>5.0093950561657982E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.67103694436746497</v>
+      </c>
+      <c r="D25">
+        <v>777.68789457213643</v>
+      </c>
+      <c r="E25">
+        <v>813.3132250580046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>282.90773939283662</v>
+      </c>
+      <c r="B26">
+        <v>4.6311785107004177E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.64401559589013768</v>
+      </c>
+      <c r="D26">
+        <v>789.13193980229914</v>
+      </c>
+      <c r="E26">
+        <v>915.47420147420144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>320.11844204363769</v>
+      </c>
+      <c r="B27">
+        <v>3.7871527517437213E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.67411870414541208</v>
+      </c>
+      <c r="D27">
+        <v>852.36789495676294</v>
+      </c>
+      <c r="E27">
+        <v>1035.285365853659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>336.37884905907089</v>
+      </c>
+      <c r="B28">
+        <v>4.3937304762684752E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.66122508151205606</v>
+      </c>
+      <c r="D28">
+        <v>878.32973120340057</v>
+      </c>
+      <c r="E28">
+        <v>770.34570765661249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>286.2910741</v>
+      </c>
+      <c r="B29">
+        <v>4.1424506999999999E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.66460317400000002</v>
+      </c>
+      <c r="D29">
+        <v>788.20318139999995</v>
+      </c>
+      <c r="E29">
+        <v>875.75227270000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>353.11213376244302</v>
+      </c>
+      <c r="B30">
+        <v>5.1871487888496187E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.63316492469971508</v>
+      </c>
+      <c r="D30">
+        <v>907.64333783148584</v>
+      </c>
+      <c r="E30">
+        <v>835.98249999999996</v>
       </c>
     </row>
   </sheetData>
@@ -756,372 +922,542 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE7E4B7-2929-4735-BF27-4139AE31B4FA}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>219.05314707311291</v>
+        <v>258.18890160331551</v>
       </c>
       <c r="B1">
-        <v>741.16496882429851</v>
+        <v>4.1084484963543083E-2</v>
       </c>
       <c r="C1">
-        <v>894.41277641277645</v>
+        <v>0.66617342510775135</v>
       </c>
       <c r="D1">
-        <v>0.66686314398908542</v>
+        <v>806.1750636457291</v>
       </c>
       <c r="E1">
-        <v>3.8127038001022677E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A15)</f>
-        <v>297.96554501121216</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>817.38748517461875</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>887.3192896409023</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.66460918674263625</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>4.2053600901799208E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>860.92098765432104</v>
+      </c>
+      <c r="I1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>306.02765272845 ± 19.2813866861987</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" ref="J1:M1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.0436529966832856 ± 0.00169013146299054</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.660666399930754 ± 0.00571820401369576</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>831.814681888491 ± 30.0000321068759</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" si="0"/>
+        <v>885.24708991789 ± 30.512351600712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>278.58437393854399</v>
+        <v>266.67240805394522</v>
       </c>
       <c r="B2">
-        <v>754.96684209225793</v>
+        <v>5.3531831619036532E-2</v>
       </c>
       <c r="C2">
-        <v>914.34422110552759</v>
+        <v>0.64942353192556879</v>
       </c>
       <c r="D2">
-        <v>0.64662355032399621</v>
+        <v>735.67199396709645</v>
       </c>
       <c r="E2">
-        <v>5.2426912892508927E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>900.66246851385392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>333.62498606571847</v>
+        <v>313.88383294349461</v>
       </c>
       <c r="B3">
-        <v>909.25694362539582</v>
+        <v>4.79703911596173E-2</v>
       </c>
       <c r="C3">
-        <v>802.89473684210532</v>
+        <v>0.65760015195715049</v>
       </c>
       <c r="D3">
-        <v>0.63267975168474666</v>
+        <v>859.99100866935385</v>
       </c>
       <c r="E3">
-        <v>4.7869044796720099E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>356.32167891780563</v>
-      </c>
-      <c r="B4" s="1">
-        <v>837.36204200242935</v>
-      </c>
-      <c r="C4" s="1">
-        <v>950.38010204081638</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.67230602844224907</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3.7972889541615568E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>773.33409610983983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>367.47955848630261</v>
+      </c>
+      <c r="B4">
+        <v>3.9879151504821318E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.62995990759153575</v>
+      </c>
+      <c r="D4">
+        <v>947.75010278371781</v>
+      </c>
+      <c r="E4">
+        <v>978.26395939086296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>235.20792140866109</v>
+        <v>367.90818484551289</v>
       </c>
       <c r="B5">
-        <v>753.54349862382355</v>
+        <v>4.1795444384136737E-2</v>
       </c>
       <c r="C5">
-        <v>716.8767123287671</v>
+        <v>0.66613737251108573</v>
       </c>
       <c r="D5">
-        <v>0.66930914347614523</v>
+        <v>939.73496270323506</v>
       </c>
       <c r="E5">
-        <v>4.2146198807329942E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>733.9201877934272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>184.2043068852993</v>
+        <v>321.3306279722803</v>
       </c>
       <c r="B6">
-        <v>673.11894372584288</v>
+        <v>4.532367177306542E-2</v>
       </c>
       <c r="C6">
-        <v>945.61428571428576</v>
+        <v>0.66111155949975231</v>
       </c>
       <c r="D6">
-        <v>0.69297371332831093</v>
+        <v>797.69277843705811</v>
       </c>
       <c r="E6">
-        <v>3.7561965410185312E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>948.42755344418049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>393.69170969264383</v>
+        <v>208.13640642001539</v>
       </c>
       <c r="B7">
-        <v>927.05197682537687</v>
+        <v>5.0072907128544182E-2</v>
       </c>
       <c r="C7">
-        <v>989.504854368932</v>
+        <v>0.63247082811218003</v>
       </c>
       <c r="D7">
-        <v>0.67338699217481224</v>
+        <v>697.72395226156766</v>
       </c>
       <c r="E7">
-        <v>3.9892189158876108E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1007.285714285714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>252.49431554261241</v>
+        <v>383.56371210284061</v>
       </c>
       <c r="B8">
-        <v>751.6617687717752</v>
+        <v>3.2719390699644003E-2</v>
       </c>
       <c r="C8">
-        <v>865.46310432569976</v>
+        <v>0.68180311125623083</v>
       </c>
       <c r="D8">
-        <v>0.66207068580272543</v>
+        <v>986.41535265037396</v>
       </c>
       <c r="E8">
-        <v>3.8481644141600241E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>848.7430025445293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>248.9571876210199</v>
+        <v>299.40248148291317</v>
       </c>
       <c r="B9">
-        <v>778.62822336543297</v>
+        <v>4.2492503611311579E-2</v>
       </c>
       <c r="C9">
-        <v>856.18952618453864</v>
+        <v>0.67238949323213182</v>
       </c>
       <c r="D9">
-        <v>0.68382760956095745</v>
+        <v>743.91257391685394</v>
       </c>
       <c r="E9">
-        <v>4.452762712579026E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>864.36658354114718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>402.44880345407728</v>
+        <v>312.89005310292458</v>
       </c>
       <c r="B10">
-        <v>887.05590178901991</v>
+        <v>4.4977749083687429E-2</v>
       </c>
       <c r="C10">
-        <v>948.24200913242009</v>
+        <v>0.66515747897325539</v>
       </c>
       <c r="D10">
-        <v>0.66408131105174539</v>
+        <v>832.12788538419943</v>
       </c>
       <c r="E10">
-        <v>4.8814508730723627E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>954.63325740318908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>446.57088310917419</v>
+        <v>263.13320397914589</v>
       </c>
       <c r="B11">
-        <v>945.3710723094955</v>
+        <v>4.2143862451320492E-2</v>
       </c>
       <c r="C11">
-        <v>755.26555023923447</v>
+        <v>0.63991026935785988</v>
       </c>
       <c r="D11">
-        <v>0.66348213394775668</v>
+        <v>798.28180220095271</v>
       </c>
       <c r="E11">
-        <v>4.2501795491483689E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>778.04306220095691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>347.57427956128419</v>
+        <v>394.40762538512593</v>
       </c>
       <c r="B12">
-        <v>932.89832322827806</v>
+        <v>4.8210861747804569E-2</v>
       </c>
       <c r="C12">
-        <v>755.35446009389671</v>
+        <v>0.66398612419857228</v>
       </c>
       <c r="D12">
-        <v>0.65518193572896688</v>
+        <v>912.76182031637995</v>
       </c>
       <c r="E12">
-        <v>3.9853993176771872E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>750.83840749414514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>248.22383993061391</v>
+        <v>378.46702020755168</v>
       </c>
       <c r="B13">
-        <v>790.47661094710327</v>
+        <v>4.4081824085584843E-2</v>
       </c>
       <c r="C13">
-        <v>924.43170731707312</v>
+        <v>0.6899313749510595</v>
       </c>
       <c r="D13">
-        <v>0.65860234320396294</v>
+        <v>874.67685270950301</v>
       </c>
       <c r="E13">
-        <v>3.6766912956251813E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>888.14425427872857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>225.90914698405709</v>
+        <v>256.33117014381241</v>
       </c>
       <c r="B14">
-        <v>790.89153099354223</v>
+        <v>4.5227905738146543E-2</v>
       </c>
       <c r="C14">
-        <v>999.70833333333337</v>
+        <v>0.65171681141792481</v>
       </c>
       <c r="D14">
-        <v>0.65308298102338924</v>
+        <v>744.2487802575223</v>
       </c>
       <c r="E14">
-        <v>4.2918914096113647E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1009.7726161369191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>296.61659498355851</v>
+        <v>278.84889772355348</v>
       </c>
       <c r="B15">
-        <v>787.36363049521026</v>
+        <v>4.2885219945960867E-2</v>
       </c>
       <c r="C15">
-        <v>991.1069651741293</v>
+        <v>0.66480540711008518</v>
       </c>
       <c r="D15">
-        <v>0.67466647740069308</v>
+        <v>846.39659954197828</v>
       </c>
       <c r="E15">
-        <v>4.0942379199994293E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1002.12158808933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>394.55899782051011</v>
+        <v>287.06960969014142</v>
       </c>
       <c r="B16">
-        <v>925.34012156067286</v>
+        <v>4.4023698377966103E-2</v>
       </c>
       <c r="C16">
-        <v>1011.848410757946</v>
+        <v>0.64289722722694864</v>
       </c>
       <c r="D16">
-        <v>0.63677757415944802</v>
+        <v>906.48902310949359</v>
       </c>
       <c r="E16">
-        <v>4.0978970361053142E-2</v>
+        <v>1009.351219512195</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>257.62237541454709</v>
+        <v>380.85970168720542</v>
       </c>
       <c r="B17">
-        <v>832.10648494176667</v>
+        <v>4.1937273476098047E-2</v>
       </c>
       <c r="C17">
-        <v>929.31090487238976</v>
+        <v>0.66630523960201471</v>
       </c>
       <c r="D17">
-        <v>0.60303169134696144</v>
+        <v>886.20239195477723</v>
       </c>
       <c r="E17">
-        <v>4.9869062789098362E-2</v>
+        <v>887.5967365967366</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>312.17038436374088</v>
+        <v>269.15089311255588</v>
       </c>
       <c r="B18">
-        <v>817.92256395491245</v>
+        <v>5.1569965847675613E-2</v>
       </c>
       <c r="C18">
-        <v>781.85579196217498</v>
+        <v>0.63611200758051911</v>
       </c>
       <c r="D18">
-        <v>0.69354907611870231</v>
+        <v>838.95146561916533</v>
       </c>
       <c r="E18">
-        <v>3.9499153292536483E-2</v>
+        <v>788.23640661938532</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>341.31462312905751</v>
+        <v>321.87353268779202</v>
       </c>
       <c r="B19">
-        <v>930.37197055263675</v>
+        <v>3.7197101159276519E-2</v>
       </c>
       <c r="C19">
-        <v>896.6650485436893</v>
+        <v>0.65480379324333993</v>
       </c>
       <c r="D19">
-        <v>0.63780884875691046</v>
+        <v>879.24784373852037</v>
       </c>
       <c r="E19">
-        <v>4.3166871870464182E-2</v>
+        <v>890.96097560975613</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>251.17485036005641</v>
+        <v>228.05337658987779</v>
       </c>
       <c r="B20">
-        <v>879.7089538259545</v>
+        <v>4.1888038257062631E-2</v>
       </c>
       <c r="C20">
-        <v>898.30023640661943</v>
+        <v>0.65084381096773636</v>
       </c>
       <c r="D20">
-        <v>0.63952992660218233</v>
+        <v>680.43621948258783</v>
       </c>
       <c r="E20">
-        <v>3.6465790063952147E-2</v>
+        <v>896.54028436018962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>285.97197826498689</v>
+      </c>
+      <c r="B21">
+        <v>4.1895902663892599E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.69366412838629476</v>
+      </c>
+      <c r="D21">
+        <v>733.47532380449377</v>
+      </c>
+      <c r="E21">
+        <v>932.99524940617573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>243.15670035002569</v>
+      </c>
+      <c r="B22">
+        <v>4.2273610731346493E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.68368750682096546</v>
+      </c>
+      <c r="D22">
+        <v>718.16280585510481</v>
+      </c>
+      <c r="E22">
+        <v>913.44266055045875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>357.40409887442672</v>
+      </c>
+      <c r="B23">
+        <v>3.3319874384055037E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.67484753569891809</v>
+      </c>
+      <c r="D23">
+        <v>918.03100496446064</v>
+      </c>
+      <c r="E23">
+        <v>893.35421686746986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>234.02965446251449</v>
+      </c>
+      <c r="B24">
+        <v>4.5884339737142787E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.65977873884359683</v>
+      </c>
+      <c r="D24">
+        <v>755.10094122628254</v>
+      </c>
+      <c r="E24">
+        <v>782.44278606965179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>269.83031279115022</v>
+      </c>
+      <c r="B25">
+        <v>5.0093950561657982E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.67103694436746497</v>
+      </c>
+      <c r="D25">
+        <v>777.68789457213643</v>
+      </c>
+      <c r="E25">
+        <v>813.3132250580046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>260.06635059552173</v>
+      </c>
+      <c r="B26">
+        <v>4.8448567863979643E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.64754573428691586</v>
+      </c>
+      <c r="D26">
+        <v>741.533508759337</v>
+      </c>
+      <c r="E26">
+        <v>917.61670761670757</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>317.12919481010368</v>
+      </c>
+      <c r="B27">
+        <v>4.1805468706349512E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.65189703996873472</v>
+      </c>
+      <c r="D27">
+        <v>887.56454199339487</v>
+      </c>
+      <c r="E27">
+        <v>1046.573170731707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>313.86888081698231</v>
+      </c>
+      <c r="B28">
+        <v>4.0267545298210167E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.67305062219178591</v>
+      </c>
+      <c r="D28">
+        <v>878.76152906278435</v>
+      </c>
+      <c r="E28">
+        <v>804.34953703703707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>391.11900198726431</v>
+      </c>
+      <c r="B29">
+        <v>4.1487258868390768E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.65504344868046305</v>
+      </c>
+      <c r="D29">
+        <v>922.05788310735636</v>
+      </c>
+      <c r="E29">
+        <v>852.08466819221962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>350.60221068021389</v>
+      </c>
+      <c r="B30">
+        <v>4.5100104669239062E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.66590137285477613</v>
+      </c>
+      <c r="D30">
+        <v>907.17654995930548</v>
+      </c>
+      <c r="E30">
+        <v>829.07711442786069</v>
       </c>
     </row>
   </sheetData>
@@ -1131,372 +1467,554 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6923DF-F932-46A1-B111-B102578010CD}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="34.5546875" customWidth="1"/>
+    <col min="11" max="11" width="34.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>236.27217036414541</v>
+        <v>258.18890160331551</v>
       </c>
       <c r="B1">
-        <v>712.1862196912258</v>
+        <v>4.1084484963543083E-2</v>
       </c>
       <c r="C1">
-        <v>877.12561576354676</v>
+        <v>0.66617342510775135</v>
       </c>
       <c r="D1">
-        <v>0.6677161071502058</v>
+        <v>806.1750636457291</v>
       </c>
       <c r="E1">
-        <v>3.6918591874402357E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A15)</f>
-        <v>336.78899186088222</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>854.40453520678591</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>879.46658551451833</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.66959551618200697</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>4.056511934929128E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>860.92098765432104</v>
+      </c>
+      <c r="I1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>315.196751011071 ± 20.3643260872736</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" ref="J1:M1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.0427231196423631 ± 0.00191891708298635</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.662892324276868 ± 0.00679907244412729</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>838.790931139837 ± 28.5950332299142</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" si="0"/>
+        <v>882.331689512087 ± 29.861433022887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>380.00047689056379</v>
+        <v>233.80889768939329</v>
       </c>
       <c r="B2">
-        <v>870.53740820577866</v>
+        <v>5.5171075243727351E-2</v>
       </c>
       <c r="C2">
-        <v>866.93924050632916</v>
+        <v>0.63582895175235543</v>
       </c>
       <c r="D2">
-        <v>0.67807472710402494</v>
+        <v>768.43967807961906</v>
       </c>
       <c r="E2">
-        <v>5.1143239695022338E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>920.530303030303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>291.60963429102708</v>
+        <v>308.9459023530959</v>
       </c>
       <c r="B3">
-        <v>753.84096778790354</v>
+        <v>4.0268581888922392E-2</v>
       </c>
       <c r="C3">
-        <v>771.59633027522932</v>
+        <v>0.65669145587082989</v>
       </c>
       <c r="D3">
-        <v>0.66750105854798159</v>
+        <v>890.11092511699155</v>
       </c>
       <c r="E3">
-        <v>4.57365443860785E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>794.85649202733487</v>
+      </c>
+      <c r="I3">
+        <f>_xlfn.STDEV.S(A1:A30)</f>
+        <v>56.908167175462715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>437.23744899732588</v>
+        <v>305.02946931077821</v>
       </c>
       <c r="B4">
-        <v>945.46949182031187</v>
+        <v>3.9685432916817698E-2</v>
       </c>
       <c r="C4">
-        <v>977.67938931297715</v>
+        <v>0.66641935899227978</v>
       </c>
       <c r="D4">
-        <v>0.67384969609624168</v>
+        <v>806.1290019189604</v>
       </c>
       <c r="E4">
-        <v>3.6478263554037077E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>968.87563451776646</v>
+      </c>
+      <c r="I4">
+        <f>I3*1.96/SQRT(30)</f>
+        <v>20.364326087273643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>235.20792140866109</v>
+        <v>340.69967837249118</v>
       </c>
       <c r="B5">
-        <v>753.54349862382355</v>
+        <v>5.0229626556782342E-2</v>
       </c>
       <c r="C5">
-        <v>726.32394366197184</v>
+        <v>0.65907121671231894</v>
       </c>
       <c r="D5">
-        <v>0.66930914347614523</v>
+        <v>863.28880577294581</v>
       </c>
       <c r="E5">
-        <v>4.2146198807329942E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>728.23474178403751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>379.66670483086511</v>
+        <v>321.23466274354558</v>
       </c>
       <c r="B6">
-        <v>989.39720947740273</v>
+        <v>4.4882044020346082E-2</v>
       </c>
       <c r="C6">
-        <v>947.50952380952378</v>
+        <v>0.6762629783244869</v>
       </c>
       <c r="D6">
-        <v>0.69612845889346275</v>
+        <v>775.687109286603</v>
       </c>
       <c r="E6">
-        <v>2.800108214210913E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>937.6009501187649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>444.86062599731139</v>
+        <v>210.92830220005661</v>
       </c>
       <c r="B7">
-        <v>981.33875299806482</v>
+        <v>5.0088119304387328E-2</v>
       </c>
       <c r="C7">
-        <v>978.71532846715331</v>
+        <v>0.63277938695278524</v>
       </c>
       <c r="D7">
-        <v>0.66225835462341753</v>
+        <v>703.06904607293347</v>
       </c>
       <c r="E7">
-        <v>4.5471756056953513E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1009.407766990291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>318.43486142799088</v>
+        <v>399.34275722449388</v>
       </c>
       <c r="B8">
-        <v>806.92327445575631</v>
+        <v>3.1627474378504702E-2</v>
       </c>
       <c r="C8">
-        <v>840.28571428571433</v>
+        <v>0.68631185665447136</v>
       </c>
       <c r="D8">
-        <v>0.69299588462744677</v>
+        <v>1002.457070863021</v>
       </c>
       <c r="E8">
-        <v>2.924176472514969E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>844.36386768447835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>358.52313799000791</v>
+        <v>218.40158693325819</v>
       </c>
       <c r="B9">
-        <v>960.58268652481422</v>
+        <v>4.2948993081423283E-2</v>
       </c>
       <c r="C9">
-        <v>868.33830845771149</v>
+        <v>0.64654101766445649</v>
       </c>
       <c r="D9">
-        <v>0.63872050352679277</v>
+        <v>700.88537624265189</v>
       </c>
       <c r="E9">
-        <v>4.0862615553349878E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>865.81840796019901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>402.44880345407728</v>
+        <v>312.89005310292458</v>
       </c>
       <c r="B10">
-        <v>887.05590178901991</v>
+        <v>4.4977749083687429E-2</v>
       </c>
       <c r="C10">
-        <v>948.24200913242009</v>
+        <v>0.66515747897325539</v>
       </c>
       <c r="D10">
-        <v>0.66408131105174539</v>
+        <v>832.12788538419943</v>
       </c>
       <c r="E10">
-        <v>4.8814508730723627E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>954.63325740318908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>417.27560325679048</v>
+        <v>341.77335518344933</v>
       </c>
       <c r="B11">
-        <v>938.66562860606223</v>
+        <v>4.7952418941777451E-2</v>
       </c>
       <c r="C11">
-        <v>735.00478468899519</v>
+        <v>0.63422683233980648</v>
       </c>
       <c r="D11">
-        <v>0.65589963462889733</v>
+        <v>850.64166483475299</v>
       </c>
       <c r="E11">
-        <v>4.5132499526574187E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>765.98564593301433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>335.55556083844101</v>
+        <v>390.40120379619549</v>
       </c>
       <c r="B12">
-        <v>930.20918823805835</v>
+        <v>4.8216475736125523E-2</v>
       </c>
       <c r="C12">
-        <v>754.39906103286387</v>
+        <v>0.66416409274499011</v>
       </c>
       <c r="D12">
-        <v>0.66841560408409451</v>
+        <v>905.79347863199712</v>
       </c>
       <c r="E12">
-        <v>3.7219554073104573E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>750.599531615925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>295.83203254696849</v>
+        <v>333.29055057254612</v>
       </c>
       <c r="B13">
-        <v>715.75217535229149</v>
+        <v>4.6497110866443078E-2</v>
       </c>
       <c r="C13">
-        <v>909.05609756097556</v>
+        <v>0.64904016259280572</v>
       </c>
       <c r="D13">
-        <v>0.68121022842742751</v>
+        <v>827.50779568248834</v>
       </c>
       <c r="E13">
-        <v>3.7294772860895477E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>913.79024390243899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>222.29330063549901</v>
+        <v>256.33117014381241</v>
       </c>
       <c r="B14">
-        <v>783.20199403606375</v>
+        <v>4.5227905738146543E-2</v>
       </c>
       <c r="C14">
-        <v>999.67647058823525</v>
+        <v>0.65171681141792481</v>
       </c>
       <c r="D14">
-        <v>0.6531055530915264</v>
+        <v>744.2487802575223</v>
       </c>
       <c r="E14">
-        <v>4.3073019053644593E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1009.7726161369191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>296.61659498355851</v>
+        <v>361.31426384066413</v>
       </c>
       <c r="B15">
-        <v>787.36363049521026</v>
+        <v>3.5533598506166011E-2</v>
       </c>
       <c r="C15">
-        <v>991.1069651741293</v>
+        <v>0.67732796427056274</v>
       </c>
       <c r="D15">
-        <v>0.67466647740069308</v>
+        <v>906.45059017754318</v>
       </c>
       <c r="E15">
-        <v>4.0942379199994293E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>949.95760598503739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>394.55899782051011</v>
+        <v>281.99127976995658</v>
       </c>
       <c r="B16">
-        <v>925.34012156067286</v>
+        <v>4.3820875864107788E-2</v>
       </c>
       <c r="C16">
-        <v>1011.848410757946</v>
+        <v>0.64397143589291173</v>
       </c>
       <c r="D16">
-        <v>0.63677757415944802</v>
+        <v>905.04615057158412</v>
       </c>
       <c r="E16">
-        <v>4.0978970361053142E-2</v>
+        <v>1006.60097323601</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>303.44620556686829</v>
+        <v>317.4355023328261</v>
       </c>
       <c r="B17">
-        <v>844.20531994784517</v>
+        <v>4.1744136029968813E-2</v>
       </c>
       <c r="C17">
-        <v>884.21212121212125</v>
+        <v>0.65076480483994925</v>
       </c>
       <c r="D17">
-        <v>0.66067566418725809</v>
+        <v>813.41622740939101</v>
       </c>
       <c r="E17">
-        <v>3.9008013836715649E-2</v>
+        <v>892.4545454545455</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>239.6862734178282</v>
+        <v>288.80518528389518</v>
       </c>
       <c r="B18">
-        <v>754.888004404821</v>
+        <v>4.3026058835717328E-2</v>
       </c>
       <c r="C18">
-        <v>811.97635933806146</v>
+        <v>0.68426925297416419</v>
       </c>
       <c r="D18">
-        <v>0.64355853215719827</v>
+        <v>831.43986216920484</v>
       </c>
       <c r="E18">
-        <v>4.8139393753443019E-2</v>
+        <v>760.32701421800948</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>396.32658514004117</v>
+        <v>321.87353268779202</v>
       </c>
       <c r="B19">
-        <v>954.93792723776596</v>
+        <v>3.7197101159276519E-2</v>
       </c>
       <c r="C19">
-        <v>881.47560975609758</v>
+        <v>0.65480379324333993</v>
       </c>
       <c r="D19">
-        <v>0.65589247113203031</v>
+        <v>879.24784373852037</v>
       </c>
       <c r="E19">
-        <v>4.0526772968377693E-2</v>
+        <v>890.96097560975613</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>293.05969984252022</v>
+        <v>365.75407259463441</v>
       </c>
       <c r="B20">
-        <v>718.30536056160531</v>
+        <v>4.3710423459425232E-2</v>
       </c>
       <c r="C20">
-        <v>923.86823529411765</v>
+        <v>0.63707528046840456</v>
       </c>
       <c r="D20">
-        <v>0.64617963002432466</v>
+        <v>947.84008114481605</v>
       </c>
       <c r="E20">
-        <v>4.1254467637591843E-2</v>
+        <v>900.05910165484636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>285.97197826498689</v>
+      </c>
+      <c r="B21">
+        <v>4.1895902663892599E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.69366412838629476</v>
+      </c>
+      <c r="D21">
+        <v>733.47532380449377</v>
+      </c>
+      <c r="E21">
+        <v>932.99524940617573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>370.09719536940497</v>
+      </c>
+      <c r="B22">
+        <v>4.3245047855039478E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.70739963922371107</v>
+      </c>
+      <c r="D22">
+        <v>884.22801966943496</v>
+      </c>
+      <c r="E22">
+        <v>887.0344827586207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>357.40409887442672</v>
+      </c>
+      <c r="B23">
+        <v>3.3319874384055037E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.67484753569891809</v>
+      </c>
+      <c r="D23">
+        <v>918.03100496446064</v>
+      </c>
+      <c r="E23">
+        <v>893.35421686746986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>220.2378532869252</v>
+      </c>
+      <c r="B24">
+        <v>4.4312302333630198E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.63541642208642191</v>
+      </c>
+      <c r="D24">
+        <v>695.54024243995855</v>
+      </c>
+      <c r="E24">
+        <v>803.6567164179105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>263.76604945515811</v>
+      </c>
+      <c r="B25">
+        <v>3.7905351732818379E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.67897199990020751</v>
+      </c>
+      <c r="D25">
+        <v>783.19916705228536</v>
+      </c>
+      <c r="E25">
+        <v>829.18329466357307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>317.35183727324778</v>
+      </c>
+      <c r="B26">
+        <v>4.6498065369531362E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.68280903328311759</v>
+      </c>
+      <c r="D26">
+        <v>817.50043720393853</v>
+      </c>
+      <c r="E26">
+        <v>901.17037037037039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>320.11844204363769</v>
+      </c>
+      <c r="B27">
+        <v>3.7871527517437213E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.67411870414541208</v>
+      </c>
+      <c r="D27">
+        <v>852.36789495676294</v>
+      </c>
+      <c r="E27">
+        <v>1035.285365853659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>336.37884905907089</v>
+      </c>
+      <c r="B28">
+        <v>4.3937304762684752E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.66122508151205606</v>
+      </c>
+      <c r="D28">
+        <v>878.32973120340057</v>
+      </c>
+      <c r="E28">
+        <v>770.34570765661249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>453.68402350848658</v>
+      </c>
+      <c r="B29">
+        <v>4.5641706189611241E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.67136598390984703</v>
+      </c>
+      <c r="D29">
+        <v>995.07366389165395</v>
+      </c>
+      <c r="E29">
+        <v>865.13211845102501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>362.45187545766788</v>
+      </c>
+      <c r="B30">
+        <v>3.3176819886897677E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.66835364237020756</v>
+      </c>
+      <c r="D30">
+        <v>845.98001200723877</v>
+      </c>
+      <c r="E30">
+        <v>826.04250000000002</v>
       </c>
     </row>
   </sheetData>
